--- a/DuAn1_N3/DanhSach.xlsx
+++ b/DuAn1_N3/DanhSach.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
   <si>
     <t>Danh Sách Sản Phẩm</t>
   </si>
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>SPCT37</t>
+  </si>
+  <si>
+    <t>SPCT38</t>
+  </si>
+  <si>
+    <t>0920u2</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -528,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -2139,6 +2148,50 @@
         <v>20000.0</v>
       </c>
       <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="N39" t="b">
         <v>1</v>
       </c>
     </row>
